--- a/2. Instrumento_Historias_De_Usuario.xlsx
+++ b/2. Instrumento_Historias_De_Usuario.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanperezu\Desktop\SABANETA\guias\CVSOFTCLASE8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanperezu\Desktop\SABANETA\guias\CVSOFTCLASE9\Sem9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desc_interesados" sheetId="2" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>El sistema muestra una alerta en los campos con información errada o incompleta</t>
   </si>
   <si>
-    <t>Requiero ingresar a al aplicación</t>
-  </si>
-  <si>
     <t xml:space="preserve">Para utilizar las funcionalidades de la aplicación </t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>Descripción de los interesados</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -233,6 +227,12 @@
   </si>
   <si>
     <t xml:space="preserve"> además de saber utilizar diversas plataformas web,ambietales, agrónomo</t>
+  </si>
+  <si>
+    <t>Descripción de los interesados(actores)</t>
+  </si>
+  <si>
+    <t>Requiero ingresar  al aplicación</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,56 +1073,56 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1135,10 +1135,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1151,18 +1151,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1198,8 +1198,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>11</v>
@@ -1321,28 +1321,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="14">
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -1355,13 +1355,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>20</v>
@@ -1373,28 +1373,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="14">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -1403,28 +1403,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -1433,28 +1433,28 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="14">
         <v>2</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="6"/>
     </row>
